--- a/InputFiles/CDS/cds_pdxnet_bingliang_phs001980_index20230323_curatorQCed_April2023_bento.xlsx
+++ b/InputFiles/CDS/cds_pdxnet_bingliang_phs001980_index20230323_curatorQCed_April2023_bento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\Desktop\autom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189700EF-3789-4095-868C-E5E3B5F9D132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7ADA04-3F58-4268-BBD7-28701E64D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="417">
   <si>
     <t>md5</t>
   </si>
@@ -1179,6 +1179,117 @@
   </si>
   <si>
     <t>MDA-MS72WESBatch2-DNA-TC929T-T_200918_0131_0132_0135_MERGE.bwa_recalibed.bam</t>
+  </si>
+  <si>
+    <t>TC303F3_Primary Xenograft Tissue</t>
+  </si>
+  <si>
+    <t>TC393F2_Primary Xenograft Tissue</t>
+  </si>
+  <si>
+    <t>TC453F2_Primary Xenograft Tissue</t>
+  </si>
+  <si>
+    <t>TC494F4_Primary Xenograft Tissue</t>
+  </si>
+  <si>
+    <t>TC551F2_Primary Xenograft Tissue</t>
+  </si>
+  <si>
+    <t>TC355PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC372PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC375PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC388PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC389PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC395PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC411PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC427PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC435PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC441PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC451PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC454PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC474PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC476PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC526P1.XABCL_RNA_Cell Line Derived Xenograft Tissue</t>
+  </si>
+  <si>
+    <t>TC539PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC540P1.XABCL_RNA_Cell Line Derived Xenograft Tissue</t>
+  </si>
+  <si>
+    <t>TC650P1.XABCL_RNA_Cell Line Derived Xenograft Tissue</t>
+  </si>
+  <si>
+    <t>TC859PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC211PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC223PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC241PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC255PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC397PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC402PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC404PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC496PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC524PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC723PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC805PT_Tumor</t>
+  </si>
+  <si>
+    <t>TC929PT_Tumor</t>
+  </si>
+  <si>
+    <t>sample_id_ui</t>
   </si>
 </sst>
 </file>
@@ -1219,12 +1330,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1440,14 +1548,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BR99"/>
+  <dimension ref="A1:BS99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BS1" sqref="BS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,9 +1567,10 @@
     <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="112.6328125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="48.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,14 +1775,17 @@
       <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="BS1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -1767,23 +1879,26 @@
       <c r="BM2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BN2" t="s">
         <v>97</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BO2" t="s">
         <v>98</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BQ2" t="s">
         <v>100</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BR2" t="s">
         <v>101</v>
       </c>
+      <c r="BS2" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -1877,23 +1992,26 @@
       <c r="BM3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BN3" t="s">
         <v>97</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BO3" t="s">
         <v>98</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" t="s">
         <v>100</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BR3" t="s">
         <v>101</v>
       </c>
+      <c r="BS3" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -1984,23 +2102,26 @@
       <c r="BM4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN4" s="2" t="s">
+      <c r="BN4" t="s">
         <v>97</v>
       </c>
-      <c r="BO4" s="2" t="s">
+      <c r="BO4" t="s">
         <v>98</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BQ4" t="s">
         <v>100</v>
       </c>
-      <c r="BR4" s="4" t="s">
+      <c r="BR4" t="s">
         <v>101</v>
       </c>
+      <c r="BS4" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
@@ -2091,23 +2212,26 @@
       <c r="BM5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN5" s="2" t="s">
+      <c r="BN5" t="s">
         <v>97</v>
       </c>
-      <c r="BO5" s="2" t="s">
+      <c r="BO5" t="s">
         <v>98</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ5" s="4" t="s">
+      <c r="BQ5" t="s">
         <v>100</v>
       </c>
-      <c r="BR5" s="4" t="s">
+      <c r="BR5" t="s">
         <v>101</v>
       </c>
+      <c r="BS5" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -2198,23 +2322,26 @@
       <c r="BM6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN6" s="2" t="s">
+      <c r="BN6" t="s">
         <v>97</v>
       </c>
-      <c r="BO6" s="2" t="s">
+      <c r="BO6" t="s">
         <v>98</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ6" s="4" t="s">
+      <c r="BQ6" t="s">
         <v>100</v>
       </c>
-      <c r="BR6" s="4" t="s">
+      <c r="BR6" t="s">
         <v>101</v>
       </c>
+      <c r="BS6" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -2305,23 +2432,26 @@
       <c r="BM7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN7" s="2" t="s">
+      <c r="BN7" t="s">
         <v>97</v>
       </c>
-      <c r="BO7" s="2" t="s">
+      <c r="BO7" t="s">
         <v>98</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ7" s="4" t="s">
+      <c r="BQ7" t="s">
         <v>100</v>
       </c>
-      <c r="BR7" s="4" t="s">
+      <c r="BR7" t="s">
         <v>101</v>
       </c>
+      <c r="BS7" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>117</v>
       </c>
@@ -2415,23 +2545,26 @@
       <c r="BM8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN8" s="2" t="s">
+      <c r="BN8" t="s">
         <v>97</v>
       </c>
-      <c r="BO8" s="2" t="s">
+      <c r="BO8" t="s">
         <v>98</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ8" s="4" t="s">
+      <c r="BQ8" t="s">
         <v>100</v>
       </c>
-      <c r="BR8" s="4" t="s">
+      <c r="BR8" t="s">
         <v>101</v>
       </c>
+      <c r="BS8" t="s">
+        <v>383</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -2525,23 +2658,26 @@
       <c r="BM9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN9" s="2" t="s">
+      <c r="BN9" t="s">
         <v>97</v>
       </c>
-      <c r="BO9" s="2" t="s">
+      <c r="BO9" t="s">
         <v>98</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ9" s="4" t="s">
+      <c r="BQ9" t="s">
         <v>100</v>
       </c>
-      <c r="BR9" s="4" t="s">
+      <c r="BR9" t="s">
         <v>101</v>
       </c>
+      <c r="BS9" t="s">
+        <v>383</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -2632,23 +2768,26 @@
       <c r="BM10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN10" s="2" t="s">
+      <c r="BN10" t="s">
         <v>97</v>
       </c>
-      <c r="BO10" s="2" t="s">
+      <c r="BO10" t="s">
         <v>98</v>
       </c>
       <c r="BP10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ10" s="4" t="s">
+      <c r="BQ10" t="s">
         <v>100</v>
       </c>
-      <c r="BR10" s="4" t="s">
+      <c r="BR10" t="s">
         <v>101</v>
       </c>
+      <c r="BS10" t="s">
+        <v>384</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
@@ -2739,23 +2878,26 @@
       <c r="BM11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN11" s="2" t="s">
+      <c r="BN11" t="s">
         <v>97</v>
       </c>
-      <c r="BO11" s="2" t="s">
+      <c r="BO11" t="s">
         <v>98</v>
       </c>
       <c r="BP11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ11" s="4" t="s">
+      <c r="BQ11" t="s">
         <v>100</v>
       </c>
-      <c r="BR11" s="4" t="s">
+      <c r="BR11" t="s">
         <v>101</v>
       </c>
+      <c r="BS11" t="s">
+        <v>384</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
@@ -2849,23 +2991,26 @@
       <c r="BM12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN12" s="2" t="s">
+      <c r="BN12" t="s">
         <v>97</v>
       </c>
-      <c r="BO12" s="2" t="s">
+      <c r="BO12" t="s">
         <v>98</v>
       </c>
       <c r="BP12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ12" s="4" t="s">
+      <c r="BQ12" t="s">
         <v>100</v>
       </c>
-      <c r="BR12" s="4" t="s">
+      <c r="BR12" t="s">
         <v>101</v>
       </c>
+      <c r="BS12" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -2959,23 +3104,26 @@
       <c r="BM13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN13" s="2" t="s">
+      <c r="BN13" t="s">
         <v>97</v>
       </c>
-      <c r="BO13" s="2" t="s">
+      <c r="BO13" t="s">
         <v>98</v>
       </c>
       <c r="BP13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ13" s="4" t="s">
+      <c r="BQ13" t="s">
         <v>100</v>
       </c>
-      <c r="BR13" s="4" t="s">
+      <c r="BR13" t="s">
         <v>101</v>
       </c>
+      <c r="BS13" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
@@ -3069,23 +3217,26 @@
       <c r="BM14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN14" s="2" t="s">
+      <c r="BN14" t="s">
         <v>97</v>
       </c>
-      <c r="BO14" s="2" t="s">
+      <c r="BO14" t="s">
         <v>98</v>
       </c>
       <c r="BP14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ14" s="4" t="s">
+      <c r="BQ14" t="s">
         <v>100</v>
       </c>
-      <c r="BR14" s="4" t="s">
+      <c r="BR14" t="s">
         <v>101</v>
       </c>
+      <c r="BS14" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -3179,23 +3330,26 @@
       <c r="BM15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN15" s="2" t="s">
+      <c r="BN15" t="s">
         <v>97</v>
       </c>
-      <c r="BO15" s="2" t="s">
+      <c r="BO15" t="s">
         <v>98</v>
       </c>
       <c r="BP15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ15" s="4" t="s">
+      <c r="BQ15" t="s">
         <v>100</v>
       </c>
-      <c r="BR15" s="4" t="s">
+      <c r="BR15" t="s">
         <v>101</v>
       </c>
+      <c r="BS15" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="16" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
@@ -3289,23 +3443,26 @@
       <c r="BM16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN16" s="2" t="s">
+      <c r="BN16" t="s">
         <v>97</v>
       </c>
-      <c r="BO16" s="2" t="s">
+      <c r="BO16" t="s">
         <v>98</v>
       </c>
       <c r="BP16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ16" s="4" t="s">
+      <c r="BQ16" t="s">
         <v>100</v>
       </c>
-      <c r="BR16" s="4" t="s">
+      <c r="BR16" t="s">
         <v>101</v>
       </c>
+      <c r="BS16" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="17" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>150</v>
       </c>
@@ -3399,23 +3556,26 @@
       <c r="BM17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN17" s="2" t="s">
+      <c r="BN17" t="s">
         <v>97</v>
       </c>
-      <c r="BO17" s="2" t="s">
+      <c r="BO17" t="s">
         <v>98</v>
       </c>
       <c r="BP17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ17" s="4" t="s">
+      <c r="BQ17" t="s">
         <v>100</v>
       </c>
-      <c r="BR17" s="4" t="s">
+      <c r="BR17" t="s">
         <v>101</v>
       </c>
+      <c r="BS17" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="18" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
@@ -3509,23 +3669,26 @@
       <c r="BM18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN18" s="2" t="s">
+      <c r="BN18" t="s">
         <v>97</v>
       </c>
-      <c r="BO18" s="2" t="s">
+      <c r="BO18" t="s">
         <v>98</v>
       </c>
       <c r="BP18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ18" s="4" t="s">
+      <c r="BQ18" t="s">
         <v>100</v>
       </c>
-      <c r="BR18" s="4" t="s">
+      <c r="BR18" t="s">
         <v>101</v>
       </c>
+      <c r="BS18" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="19" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
@@ -3619,23 +3782,26 @@
       <c r="BM19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN19" s="2" t="s">
+      <c r="BN19" t="s">
         <v>97</v>
       </c>
-      <c r="BO19" s="2" t="s">
+      <c r="BO19" t="s">
         <v>98</v>
       </c>
       <c r="BP19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ19" s="4" t="s">
+      <c r="BQ19" t="s">
         <v>100</v>
       </c>
-      <c r="BR19" s="4" t="s">
+      <c r="BR19" t="s">
         <v>101</v>
       </c>
+      <c r="BS19" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="20" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
@@ -3729,23 +3895,26 @@
       <c r="BM20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN20" s="2" t="s">
+      <c r="BN20" t="s">
         <v>97</v>
       </c>
-      <c r="BO20" s="2" t="s">
+      <c r="BO20" t="s">
         <v>98</v>
       </c>
       <c r="BP20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ20" s="4" t="s">
+      <c r="BQ20" t="s">
         <v>100</v>
       </c>
-      <c r="BR20" s="4" t="s">
+      <c r="BR20" t="s">
         <v>101</v>
       </c>
+      <c r="BS20" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="21" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>161</v>
       </c>
@@ -3839,23 +4008,26 @@
       <c r="BM21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN21" s="2" t="s">
+      <c r="BN21" t="s">
         <v>97</v>
       </c>
-      <c r="BO21" s="2" t="s">
+      <c r="BO21" t="s">
         <v>98</v>
       </c>
       <c r="BP21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ21" s="4" t="s">
+      <c r="BQ21" t="s">
         <v>100</v>
       </c>
-      <c r="BR21" s="4" t="s">
+      <c r="BR21" t="s">
         <v>101</v>
       </c>
+      <c r="BS21" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="22" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>163</v>
       </c>
@@ -3949,23 +4121,26 @@
       <c r="BM22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN22" s="2" t="s">
+      <c r="BN22" t="s">
         <v>97</v>
       </c>
-      <c r="BO22" s="2" t="s">
+      <c r="BO22" t="s">
         <v>98</v>
       </c>
       <c r="BP22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ22" s="4" t="s">
+      <c r="BQ22" t="s">
         <v>100</v>
       </c>
-      <c r="BR22" s="4" t="s">
+      <c r="BR22" t="s">
         <v>101</v>
       </c>
+      <c r="BS22" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="23" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>167</v>
       </c>
@@ -4059,23 +4234,26 @@
       <c r="BM23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN23" s="2" t="s">
+      <c r="BN23" t="s">
         <v>97</v>
       </c>
-      <c r="BO23" s="2" t="s">
+      <c r="BO23" t="s">
         <v>98</v>
       </c>
       <c r="BP23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ23" s="4" t="s">
+      <c r="BQ23" t="s">
         <v>100</v>
       </c>
-      <c r="BR23" s="4" t="s">
+      <c r="BR23" t="s">
         <v>101</v>
       </c>
+      <c r="BS23" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="24" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>169</v>
       </c>
@@ -4169,23 +4347,26 @@
       <c r="BM24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN24" s="2" t="s">
+      <c r="BN24" t="s">
         <v>97</v>
       </c>
-      <c r="BO24" s="2" t="s">
+      <c r="BO24" t="s">
         <v>98</v>
       </c>
       <c r="BP24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ24" s="4" t="s">
+      <c r="BQ24" t="s">
         <v>100</v>
       </c>
-      <c r="BR24" s="4" t="s">
+      <c r="BR24" t="s">
         <v>101</v>
       </c>
+      <c r="BS24" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="25" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>171</v>
       </c>
@@ -4279,23 +4460,26 @@
       <c r="BM25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN25" s="2" t="s">
+      <c r="BN25" t="s">
         <v>97</v>
       </c>
-      <c r="BO25" s="2" t="s">
+      <c r="BO25" t="s">
         <v>98</v>
       </c>
       <c r="BP25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ25" s="4" t="s">
+      <c r="BQ25" t="s">
         <v>100</v>
       </c>
-      <c r="BR25" s="4" t="s">
+      <c r="BR25" t="s">
         <v>101</v>
       </c>
+      <c r="BS25" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="26" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>173</v>
       </c>
@@ -4389,23 +4573,26 @@
       <c r="BM26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN26" s="2" t="s">
+      <c r="BN26" t="s">
         <v>97</v>
       </c>
-      <c r="BO26" s="2" t="s">
+      <c r="BO26" t="s">
         <v>98</v>
       </c>
       <c r="BP26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ26" s="4" t="s">
+      <c r="BQ26" t="s">
         <v>100</v>
       </c>
-      <c r="BR26" s="4" t="s">
+      <c r="BR26" t="s">
         <v>101</v>
       </c>
+      <c r="BS26" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="27" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>177</v>
       </c>
@@ -4499,23 +4686,26 @@
       <c r="BM27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN27" s="2" t="s">
+      <c r="BN27" t="s">
         <v>97</v>
       </c>
-      <c r="BO27" s="2" t="s">
+      <c r="BO27" t="s">
         <v>98</v>
       </c>
       <c r="BP27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ27" s="4" t="s">
+      <c r="BQ27" t="s">
         <v>100</v>
       </c>
-      <c r="BR27" s="4" t="s">
+      <c r="BR27" t="s">
         <v>101</v>
       </c>
+      <c r="BS27" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="28" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>179</v>
       </c>
@@ -4609,23 +4799,26 @@
       <c r="BM28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN28" s="2" t="s">
+      <c r="BN28" t="s">
         <v>97</v>
       </c>
-      <c r="BO28" s="2" t="s">
+      <c r="BO28" t="s">
         <v>98</v>
       </c>
       <c r="BP28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ28" s="4" t="s">
+      <c r="BQ28" t="s">
         <v>100</v>
       </c>
-      <c r="BR28" s="4" t="s">
+      <c r="BR28" t="s">
         <v>101</v>
       </c>
+      <c r="BS28" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="29" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>181</v>
       </c>
@@ -4719,23 +4912,26 @@
       <c r="BM29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN29" s="2" t="s">
+      <c r="BN29" t="s">
         <v>97</v>
       </c>
-      <c r="BO29" s="2" t="s">
+      <c r="BO29" t="s">
         <v>98</v>
       </c>
       <c r="BP29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ29" s="4" t="s">
+      <c r="BQ29" t="s">
         <v>100</v>
       </c>
-      <c r="BR29" s="4" t="s">
+      <c r="BR29" t="s">
         <v>101</v>
       </c>
+      <c r="BS29" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="30" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>183</v>
       </c>
@@ -4832,23 +5028,26 @@
       <c r="BM30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN30" s="2" t="s">
+      <c r="BN30" t="s">
         <v>97</v>
       </c>
-      <c r="BO30" s="2" t="s">
+      <c r="BO30" t="s">
         <v>98</v>
       </c>
       <c r="BP30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ30" s="4" t="s">
+      <c r="BQ30" t="s">
         <v>100</v>
       </c>
-      <c r="BR30" s="4" t="s">
+      <c r="BR30" t="s">
         <v>101</v>
       </c>
+      <c r="BS30" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="31" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>187</v>
       </c>
@@ -4945,23 +5144,26 @@
       <c r="BM31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN31" s="2" t="s">
+      <c r="BN31" t="s">
         <v>97</v>
       </c>
-      <c r="BO31" s="2" t="s">
+      <c r="BO31" t="s">
         <v>98</v>
       </c>
       <c r="BP31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ31" s="4" t="s">
+      <c r="BQ31" t="s">
         <v>100</v>
       </c>
-      <c r="BR31" s="4" t="s">
+      <c r="BR31" t="s">
         <v>101</v>
       </c>
+      <c r="BS31" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="32" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>189</v>
       </c>
@@ -5058,23 +5260,26 @@
       <c r="BM32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN32" s="2" t="s">
+      <c r="BN32" t="s">
         <v>97</v>
       </c>
-      <c r="BO32" s="2" t="s">
+      <c r="BO32" t="s">
         <v>98</v>
       </c>
       <c r="BP32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ32" s="4" t="s">
+      <c r="BQ32" t="s">
         <v>100</v>
       </c>
-      <c r="BR32" s="4" t="s">
+      <c r="BR32" t="s">
         <v>101</v>
       </c>
+      <c r="BS32" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="33" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>191</v>
       </c>
@@ -5171,23 +5376,26 @@
       <c r="BM33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN33" s="2" t="s">
+      <c r="BN33" t="s">
         <v>97</v>
       </c>
-      <c r="BO33" s="2" t="s">
+      <c r="BO33" t="s">
         <v>98</v>
       </c>
       <c r="BP33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ33" s="4" t="s">
+      <c r="BQ33" t="s">
         <v>100</v>
       </c>
-      <c r="BR33" s="4" t="s">
+      <c r="BR33" t="s">
         <v>101</v>
       </c>
+      <c r="BS33" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="34" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
@@ -5284,23 +5492,26 @@
       <c r="BM34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN34" s="2" t="s">
+      <c r="BN34" t="s">
         <v>97</v>
       </c>
-      <c r="BO34" s="2" t="s">
+      <c r="BO34" t="s">
         <v>98</v>
       </c>
       <c r="BP34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ34" s="4" t="s">
+      <c r="BQ34" t="s">
         <v>100</v>
       </c>
-      <c r="BR34" s="4" t="s">
+      <c r="BR34" t="s">
         <v>101</v>
       </c>
+      <c r="BS34" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="35" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>197</v>
       </c>
@@ -5397,23 +5608,26 @@
       <c r="BM35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN35" s="2" t="s">
+      <c r="BN35" t="s">
         <v>97</v>
       </c>
-      <c r="BO35" s="2" t="s">
+      <c r="BO35" t="s">
         <v>98</v>
       </c>
       <c r="BP35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ35" s="4" t="s">
+      <c r="BQ35" t="s">
         <v>100</v>
       </c>
-      <c r="BR35" s="4" t="s">
+      <c r="BR35" t="s">
         <v>101</v>
       </c>
+      <c r="BS35" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="36" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>199</v>
       </c>
@@ -5510,23 +5724,26 @@
       <c r="BM36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN36" s="2" t="s">
+      <c r="BN36" t="s">
         <v>97</v>
       </c>
-      <c r="BO36" s="2" t="s">
+      <c r="BO36" t="s">
         <v>98</v>
       </c>
       <c r="BP36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ36" s="4" t="s">
+      <c r="BQ36" t="s">
         <v>100</v>
       </c>
-      <c r="BR36" s="4" t="s">
+      <c r="BR36" t="s">
         <v>101</v>
       </c>
+      <c r="BS36" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="37" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>201</v>
       </c>
@@ -5623,23 +5840,26 @@
       <c r="BM37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN37" s="2" t="s">
+      <c r="BN37" t="s">
         <v>97</v>
       </c>
-      <c r="BO37" s="2" t="s">
+      <c r="BO37" t="s">
         <v>98</v>
       </c>
       <c r="BP37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ37" s="4" t="s">
+      <c r="BQ37" t="s">
         <v>100</v>
       </c>
-      <c r="BR37" s="4" t="s">
+      <c r="BR37" t="s">
         <v>101</v>
       </c>
+      <c r="BS37" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="38" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>203</v>
       </c>
@@ -5733,23 +5953,26 @@
       <c r="BM38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN38" s="2" t="s">
+      <c r="BN38" t="s">
         <v>97</v>
       </c>
-      <c r="BO38" s="2" t="s">
+      <c r="BO38" t="s">
         <v>98</v>
       </c>
       <c r="BP38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ38" s="4" t="s">
+      <c r="BQ38" t="s">
         <v>100</v>
       </c>
-      <c r="BR38" s="4" t="s">
+      <c r="BR38" t="s">
         <v>101</v>
       </c>
+      <c r="BS38" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="39" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>207</v>
       </c>
@@ -5843,23 +6066,26 @@
       <c r="BM39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN39" s="2" t="s">
+      <c r="BN39" t="s">
         <v>97</v>
       </c>
-      <c r="BO39" s="2" t="s">
+      <c r="BO39" t="s">
         <v>98</v>
       </c>
       <c r="BP39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ39" s="4" t="s">
+      <c r="BQ39" t="s">
         <v>100</v>
       </c>
-      <c r="BR39" s="4" t="s">
+      <c r="BR39" t="s">
         <v>101</v>
       </c>
+      <c r="BS39" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="40" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>209</v>
       </c>
@@ -5953,23 +6179,26 @@
       <c r="BM40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN40" s="2" t="s">
+      <c r="BN40" t="s">
         <v>97</v>
       </c>
-      <c r="BO40" s="2" t="s">
+      <c r="BO40" t="s">
         <v>98</v>
       </c>
       <c r="BP40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ40" s="4" t="s">
+      <c r="BQ40" t="s">
         <v>100</v>
       </c>
-      <c r="BR40" s="4" t="s">
+      <c r="BR40" t="s">
         <v>101</v>
       </c>
+      <c r="BS40" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="41" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>211</v>
       </c>
@@ -6063,23 +6292,26 @@
       <c r="BM41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN41" s="2" t="s">
+      <c r="BN41" t="s">
         <v>97</v>
       </c>
-      <c r="BO41" s="2" t="s">
+      <c r="BO41" t="s">
         <v>98</v>
       </c>
       <c r="BP41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ41" s="4" t="s">
+      <c r="BQ41" t="s">
         <v>100</v>
       </c>
-      <c r="BR41" s="4" t="s">
+      <c r="BR41" t="s">
         <v>101</v>
       </c>
+      <c r="BS41" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="42" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>213</v>
       </c>
@@ -6176,23 +6408,26 @@
       <c r="BM42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN42" s="2" t="s">
+      <c r="BN42" t="s">
         <v>97</v>
       </c>
-      <c r="BO42" s="2" t="s">
+      <c r="BO42" t="s">
         <v>98</v>
       </c>
       <c r="BP42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ42" s="4" t="s">
+      <c r="BQ42" t="s">
         <v>100</v>
       </c>
-      <c r="BR42" s="4" t="s">
+      <c r="BR42" t="s">
         <v>101</v>
       </c>
+      <c r="BS42" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="43" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>219</v>
       </c>
@@ -6289,23 +6524,26 @@
       <c r="BM43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN43" s="2" t="s">
+      <c r="BN43" t="s">
         <v>97</v>
       </c>
-      <c r="BO43" s="2" t="s">
+      <c r="BO43" t="s">
         <v>98</v>
       </c>
       <c r="BP43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ43" s="4" t="s">
+      <c r="BQ43" t="s">
         <v>100</v>
       </c>
-      <c r="BR43" s="4" t="s">
+      <c r="BR43" t="s">
         <v>101</v>
       </c>
+      <c r="BS43" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="44" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>221</v>
       </c>
@@ -6399,23 +6637,26 @@
       <c r="BM44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN44" s="2" t="s">
+      <c r="BN44" t="s">
         <v>97</v>
       </c>
-      <c r="BO44" s="2" t="s">
+      <c r="BO44" t="s">
         <v>98</v>
       </c>
       <c r="BP44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ44" s="4" t="s">
+      <c r="BQ44" t="s">
         <v>100</v>
       </c>
-      <c r="BR44" s="4" t="s">
+      <c r="BR44" t="s">
         <v>101</v>
       </c>
+      <c r="BS44" t="s">
+        <v>394</v>
+      </c>
     </row>
-    <row r="45" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>225</v>
       </c>
@@ -6509,23 +6750,26 @@
       <c r="BM45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN45" s="2" t="s">
+      <c r="BN45" t="s">
         <v>97</v>
       </c>
-      <c r="BO45" s="2" t="s">
+      <c r="BO45" t="s">
         <v>98</v>
       </c>
       <c r="BP45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ45" s="4" t="s">
+      <c r="BQ45" t="s">
         <v>100</v>
       </c>
-      <c r="BR45" s="4" t="s">
+      <c r="BR45" t="s">
         <v>101</v>
       </c>
+      <c r="BS45" t="s">
+        <v>394</v>
+      </c>
     </row>
-    <row r="46" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>227</v>
       </c>
@@ -6619,23 +6863,26 @@
       <c r="BM46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN46" s="2" t="s">
+      <c r="BN46" t="s">
         <v>97</v>
       </c>
-      <c r="BO46" s="2" t="s">
+      <c r="BO46" t="s">
         <v>98</v>
       </c>
       <c r="BP46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ46" s="4" t="s">
+      <c r="BQ46" t="s">
         <v>100</v>
       </c>
-      <c r="BR46" s="4" t="s">
+      <c r="BR46" t="s">
         <v>101</v>
       </c>
+      <c r="BS46" t="s">
+        <v>394</v>
+      </c>
     </row>
-    <row r="47" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>229</v>
       </c>
@@ -6729,23 +6976,26 @@
       <c r="BM47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN47" s="2" t="s">
+      <c r="BN47" t="s">
         <v>97</v>
       </c>
-      <c r="BO47" s="2" t="s">
+      <c r="BO47" t="s">
         <v>98</v>
       </c>
       <c r="BP47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ47" s="4" t="s">
+      <c r="BQ47" t="s">
         <v>100</v>
       </c>
-      <c r="BR47" s="4" t="s">
+      <c r="BR47" t="s">
         <v>101</v>
       </c>
+      <c r="BS47" t="s">
+        <v>394</v>
+      </c>
     </row>
-    <row r="48" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>231</v>
       </c>
@@ -6839,23 +7089,26 @@
       <c r="BM48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN48" s="2" t="s">
+      <c r="BN48" t="s">
         <v>97</v>
       </c>
-      <c r="BO48" s="2" t="s">
+      <c r="BO48" t="s">
         <v>98</v>
       </c>
       <c r="BP48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ48" s="4" t="s">
+      <c r="BQ48" t="s">
         <v>100</v>
       </c>
-      <c r="BR48" s="4" t="s">
+      <c r="BR48" t="s">
         <v>101</v>
       </c>
+      <c r="BS48" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="49" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>235</v>
       </c>
@@ -6949,23 +7202,26 @@
       <c r="BM49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN49" s="2" t="s">
+      <c r="BN49" t="s">
         <v>97</v>
       </c>
-      <c r="BO49" s="2" t="s">
+      <c r="BO49" t="s">
         <v>98</v>
       </c>
       <c r="BP49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ49" s="4" t="s">
+      <c r="BQ49" t="s">
         <v>100</v>
       </c>
-      <c r="BR49" s="4" t="s">
+      <c r="BR49" t="s">
         <v>101</v>
       </c>
+      <c r="BS49" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="50" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>237</v>
       </c>
@@ -7059,23 +7315,26 @@
       <c r="BM50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN50" s="2" t="s">
+      <c r="BN50" t="s">
         <v>97</v>
       </c>
-      <c r="BO50" s="2" t="s">
+      <c r="BO50" t="s">
         <v>98</v>
       </c>
       <c r="BP50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ50" s="4" t="s">
+      <c r="BQ50" t="s">
         <v>100</v>
       </c>
-      <c r="BR50" s="4" t="s">
+      <c r="BR50" t="s">
         <v>101</v>
       </c>
+      <c r="BS50" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="51" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>239</v>
       </c>
@@ -7169,23 +7428,26 @@
       <c r="BM51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN51" s="2" t="s">
+      <c r="BN51" t="s">
         <v>97</v>
       </c>
-      <c r="BO51" s="2" t="s">
+      <c r="BO51" t="s">
         <v>98</v>
       </c>
       <c r="BP51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ51" s="4" t="s">
+      <c r="BQ51" t="s">
         <v>100</v>
       </c>
-      <c r="BR51" s="4" t="s">
+      <c r="BR51" t="s">
         <v>101</v>
       </c>
+      <c r="BS51" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="52" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>241</v>
       </c>
@@ -7279,23 +7541,26 @@
       <c r="BM52" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN52" s="2" t="s">
+      <c r="BN52" t="s">
         <v>97</v>
       </c>
-      <c r="BO52" s="2" t="s">
+      <c r="BO52" t="s">
         <v>98</v>
       </c>
       <c r="BP52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ52" s="4" t="s">
+      <c r="BQ52" t="s">
         <v>100</v>
       </c>
-      <c r="BR52" s="4" t="s">
+      <c r="BR52" t="s">
         <v>101</v>
       </c>
+      <c r="BS52" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="53" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>245</v>
       </c>
@@ -7389,23 +7654,26 @@
       <c r="BM53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN53" s="2" t="s">
+      <c r="BN53" t="s">
         <v>97</v>
       </c>
-      <c r="BO53" s="2" t="s">
+      <c r="BO53" t="s">
         <v>98</v>
       </c>
       <c r="BP53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ53" s="4" t="s">
+      <c r="BQ53" t="s">
         <v>100</v>
       </c>
-      <c r="BR53" s="4" t="s">
+      <c r="BR53" t="s">
         <v>101</v>
       </c>
+      <c r="BS53" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="54" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>247</v>
       </c>
@@ -7499,23 +7767,26 @@
       <c r="BM54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN54" s="2" t="s">
+      <c r="BN54" t="s">
         <v>97</v>
       </c>
-      <c r="BO54" s="2" t="s">
+      <c r="BO54" t="s">
         <v>98</v>
       </c>
       <c r="BP54" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ54" s="4" t="s">
+      <c r="BQ54" t="s">
         <v>100</v>
       </c>
-      <c r="BR54" s="4" t="s">
+      <c r="BR54" t="s">
         <v>101</v>
       </c>
+      <c r="BS54" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="55" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>249</v>
       </c>
@@ -7609,23 +7880,26 @@
       <c r="BM55" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN55" s="2" t="s">
+      <c r="BN55" t="s">
         <v>97</v>
       </c>
-      <c r="BO55" s="2" t="s">
+      <c r="BO55" t="s">
         <v>98</v>
       </c>
       <c r="BP55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ55" s="4" t="s">
+      <c r="BQ55" t="s">
         <v>100</v>
       </c>
-      <c r="BR55" s="4" t="s">
+      <c r="BR55" t="s">
         <v>101</v>
       </c>
+      <c r="BS55" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="56" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>251</v>
       </c>
@@ -7722,23 +7996,26 @@
       <c r="BM56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN56" s="2" t="s">
+      <c r="BN56" t="s">
         <v>97</v>
       </c>
-      <c r="BO56" s="2" t="s">
+      <c r="BO56" t="s">
         <v>98</v>
       </c>
       <c r="BP56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ56" s="4" t="s">
+      <c r="BQ56" t="s">
         <v>100</v>
       </c>
-      <c r="BR56" s="4" t="s">
+      <c r="BR56" t="s">
         <v>101</v>
       </c>
+      <c r="BS56" t="s">
+        <v>397</v>
+      </c>
     </row>
-    <row r="57" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>256</v>
       </c>
@@ -7835,23 +8112,26 @@
       <c r="BM57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN57" s="2" t="s">
+      <c r="BN57" t="s">
         <v>97</v>
       </c>
-      <c r="BO57" s="2" t="s">
+      <c r="BO57" t="s">
         <v>98</v>
       </c>
       <c r="BP57" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ57" s="4" t="s">
+      <c r="BQ57" t="s">
         <v>100</v>
       </c>
-      <c r="BR57" s="4" t="s">
+      <c r="BR57" t="s">
         <v>101</v>
       </c>
+      <c r="BS57" t="s">
+        <v>397</v>
+      </c>
     </row>
-    <row r="58" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>258</v>
       </c>
@@ -7948,23 +8228,26 @@
       <c r="BM58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN58" s="2" t="s">
+      <c r="BN58" t="s">
         <v>97</v>
       </c>
-      <c r="BO58" s="2" t="s">
+      <c r="BO58" t="s">
         <v>98</v>
       </c>
       <c r="BP58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ58" s="4" t="s">
+      <c r="BQ58" t="s">
         <v>100</v>
       </c>
-      <c r="BR58" s="4" t="s">
+      <c r="BR58" t="s">
         <v>101</v>
       </c>
+      <c r="BS58" t="s">
+        <v>397</v>
+      </c>
     </row>
-    <row r="59" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>260</v>
       </c>
@@ -8061,23 +8344,26 @@
       <c r="BM59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN59" s="2" t="s">
+      <c r="BN59" t="s">
         <v>97</v>
       </c>
-      <c r="BO59" s="2" t="s">
+      <c r="BO59" t="s">
         <v>98</v>
       </c>
       <c r="BP59" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ59" s="4" t="s">
+      <c r="BQ59" t="s">
         <v>100</v>
       </c>
-      <c r="BR59" s="4" t="s">
+      <c r="BR59" t="s">
         <v>101</v>
       </c>
+      <c r="BS59" t="s">
+        <v>397</v>
+      </c>
     </row>
-    <row r="60" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>262</v>
       </c>
@@ -8171,23 +8457,26 @@
       <c r="BM60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN60" s="2" t="s">
+      <c r="BN60" t="s">
         <v>97</v>
       </c>
-      <c r="BO60" s="2" t="s">
+      <c r="BO60" t="s">
         <v>98</v>
       </c>
       <c r="BP60" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ60" s="4" t="s">
+      <c r="BQ60" t="s">
         <v>100</v>
       </c>
-      <c r="BR60" s="4" t="s">
+      <c r="BR60" t="s">
         <v>101</v>
       </c>
+      <c r="BS60" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="61" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>266</v>
       </c>
@@ -8281,23 +8570,26 @@
       <c r="BM61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN61" s="2" t="s">
+      <c r="BN61" t="s">
         <v>97</v>
       </c>
-      <c r="BO61" s="2" t="s">
+      <c r="BO61" t="s">
         <v>98</v>
       </c>
       <c r="BP61" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ61" s="4" t="s">
+      <c r="BQ61" t="s">
         <v>100</v>
       </c>
-      <c r="BR61" s="4" t="s">
+      <c r="BR61" t="s">
         <v>101</v>
       </c>
+      <c r="BS61" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="62" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>268</v>
       </c>
@@ -8391,23 +8683,26 @@
       <c r="BM62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN62" s="2" t="s">
+      <c r="BN62" t="s">
         <v>97</v>
       </c>
-      <c r="BO62" s="2" t="s">
+      <c r="BO62" t="s">
         <v>98</v>
       </c>
       <c r="BP62" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ62" s="4" t="s">
+      <c r="BQ62" t="s">
         <v>100</v>
       </c>
-      <c r="BR62" s="4" t="s">
+      <c r="BR62" t="s">
         <v>101</v>
       </c>
+      <c r="BS62" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="63" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>270</v>
       </c>
@@ -8501,23 +8796,26 @@
       <c r="BM63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN63" s="2" t="s">
+      <c r="BN63" t="s">
         <v>97</v>
       </c>
-      <c r="BO63" s="2" t="s">
+      <c r="BO63" t="s">
         <v>98</v>
       </c>
       <c r="BP63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ63" s="4" t="s">
+      <c r="BQ63" t="s">
         <v>100</v>
       </c>
-      <c r="BR63" s="4" t="s">
+      <c r="BR63" t="s">
         <v>101</v>
       </c>
+      <c r="BS63" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="64" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>272</v>
       </c>
@@ -8605,23 +8903,26 @@
       <c r="BM64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN64" s="2" t="s">
+      <c r="BN64" t="s">
         <v>97</v>
       </c>
-      <c r="BO64" s="2" t="s">
+      <c r="BO64" t="s">
         <v>98</v>
       </c>
       <c r="BP64" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ64" s="4" t="s">
+      <c r="BQ64" t="s">
         <v>100</v>
       </c>
-      <c r="BR64" s="4" t="s">
+      <c r="BR64" t="s">
         <v>101</v>
       </c>
+      <c r="BS64" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="65" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>277</v>
       </c>
@@ -8709,23 +9010,26 @@
       <c r="BM65" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN65" s="2" t="s">
+      <c r="BN65" t="s">
         <v>97</v>
       </c>
-      <c r="BO65" s="2" t="s">
+      <c r="BO65" t="s">
         <v>98</v>
       </c>
       <c r="BP65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ65" s="4" t="s">
+      <c r="BQ65" t="s">
         <v>100</v>
       </c>
-      <c r="BR65" s="4" t="s">
+      <c r="BR65" t="s">
         <v>101</v>
       </c>
+      <c r="BS65" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="66" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>279</v>
       </c>
@@ -8819,23 +9123,26 @@
       <c r="BM66" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN66" s="2" t="s">
+      <c r="BN66" t="s">
         <v>97</v>
       </c>
-      <c r="BO66" s="2" t="s">
+      <c r="BO66" t="s">
         <v>98</v>
       </c>
       <c r="BP66" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ66" s="4" t="s">
+      <c r="BQ66" t="s">
         <v>100</v>
       </c>
-      <c r="BR66" s="4" t="s">
+      <c r="BR66" t="s">
         <v>101</v>
       </c>
+      <c r="BS66" t="s">
+        <v>400</v>
+      </c>
     </row>
-    <row r="67" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>284</v>
       </c>
@@ -8929,23 +9236,26 @@
       <c r="BM67" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN67" s="2" t="s">
+      <c r="BN67" t="s">
         <v>97</v>
       </c>
-      <c r="BO67" s="2" t="s">
+      <c r="BO67" t="s">
         <v>98</v>
       </c>
       <c r="BP67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ67" s="4" t="s">
+      <c r="BQ67" t="s">
         <v>100</v>
       </c>
-      <c r="BR67" s="4" t="s">
+      <c r="BR67" t="s">
         <v>101</v>
       </c>
+      <c r="BS67" t="s">
+        <v>400</v>
+      </c>
     </row>
-    <row r="68" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>286</v>
       </c>
@@ -9039,23 +9349,26 @@
       <c r="BM68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN68" s="2" t="s">
+      <c r="BN68" t="s">
         <v>97</v>
       </c>
-      <c r="BO68" s="2" t="s">
+      <c r="BO68" t="s">
         <v>98</v>
       </c>
       <c r="BP68" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ68" s="4" t="s">
+      <c r="BQ68" t="s">
         <v>100</v>
       </c>
-      <c r="BR68" s="4" t="s">
+      <c r="BR68" t="s">
         <v>101</v>
       </c>
+      <c r="BS68" t="s">
+        <v>400</v>
+      </c>
     </row>
-    <row r="69" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>288</v>
       </c>
@@ -9149,23 +9462,26 @@
       <c r="BM69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN69" s="2" t="s">
+      <c r="BN69" t="s">
         <v>97</v>
       </c>
-      <c r="BO69" s="2" t="s">
+      <c r="BO69" t="s">
         <v>98</v>
       </c>
       <c r="BP69" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ69" s="4" t="s">
+      <c r="BQ69" t="s">
         <v>100</v>
       </c>
-      <c r="BR69" s="4" t="s">
+      <c r="BR69" t="s">
         <v>101</v>
       </c>
+      <c r="BS69" t="s">
+        <v>400</v>
+      </c>
     </row>
-    <row r="70" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>290</v>
       </c>
@@ -9253,23 +9569,26 @@
       <c r="BM70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN70" s="2" t="s">
+      <c r="BN70" t="s">
         <v>97</v>
       </c>
-      <c r="BO70" s="2" t="s">
+      <c r="BO70" t="s">
         <v>98</v>
       </c>
       <c r="BP70" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ70" s="4" t="s">
+      <c r="BQ70" t="s">
         <v>100</v>
       </c>
-      <c r="BR70" s="4" t="s">
+      <c r="BR70" t="s">
         <v>101</v>
       </c>
+      <c r="BS70" t="s">
+        <v>401</v>
+      </c>
     </row>
-    <row r="71" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>294</v>
       </c>
@@ -9357,23 +9676,26 @@
       <c r="BM71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN71" s="2" t="s">
+      <c r="BN71" t="s">
         <v>97</v>
       </c>
-      <c r="BO71" s="2" t="s">
+      <c r="BO71" t="s">
         <v>98</v>
       </c>
       <c r="BP71" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ71" s="4" t="s">
+      <c r="BQ71" t="s">
         <v>100</v>
       </c>
-      <c r="BR71" s="4" t="s">
+      <c r="BR71" t="s">
         <v>101</v>
       </c>
+      <c r="BS71" t="s">
+        <v>401</v>
+      </c>
     </row>
-    <row r="72" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>296</v>
       </c>
@@ -9461,23 +9783,26 @@
       <c r="BM72" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN72" s="2" t="s">
+      <c r="BN72" t="s">
         <v>97</v>
       </c>
-      <c r="BO72" s="2" t="s">
+      <c r="BO72" t="s">
         <v>98</v>
       </c>
       <c r="BP72" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ72" s="4" t="s">
+      <c r="BQ72" t="s">
         <v>100</v>
       </c>
-      <c r="BR72" s="4" t="s">
+      <c r="BR72" t="s">
         <v>101</v>
       </c>
+      <c r="BS72" t="s">
+        <v>402</v>
+      </c>
     </row>
-    <row r="73" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>300</v>
       </c>
@@ -9565,23 +9890,26 @@
       <c r="BM73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN73" s="2" t="s">
+      <c r="BN73" t="s">
         <v>97</v>
       </c>
-      <c r="BO73" s="2" t="s">
+      <c r="BO73" t="s">
         <v>98</v>
       </c>
       <c r="BP73" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ73" s="4" t="s">
+      <c r="BQ73" t="s">
         <v>100</v>
       </c>
-      <c r="BR73" s="4" t="s">
+      <c r="BR73" t="s">
         <v>101</v>
       </c>
+      <c r="BS73" t="s">
+        <v>402</v>
+      </c>
     </row>
-    <row r="74" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>302</v>
       </c>
@@ -9675,23 +10003,26 @@
       <c r="BM74" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN74" s="2" t="s">
+      <c r="BN74" t="s">
         <v>97</v>
       </c>
-      <c r="BO74" s="2" t="s">
+      <c r="BO74" t="s">
         <v>98</v>
       </c>
       <c r="BP74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ74" s="4" t="s">
+      <c r="BQ74" t="s">
         <v>100</v>
       </c>
-      <c r="BR74" s="4" t="s">
+      <c r="BR74" t="s">
         <v>101</v>
       </c>
+      <c r="BS74" t="s">
+        <v>403</v>
+      </c>
     </row>
-    <row r="75" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>306</v>
       </c>
@@ -9785,23 +10116,26 @@
       <c r="BM75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN75" s="2" t="s">
+      <c r="BN75" t="s">
         <v>97</v>
       </c>
-      <c r="BO75" s="2" t="s">
+      <c r="BO75" t="s">
         <v>98</v>
       </c>
       <c r="BP75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ75" s="4" t="s">
+      <c r="BQ75" t="s">
         <v>100</v>
       </c>
-      <c r="BR75" s="4" t="s">
+      <c r="BR75" t="s">
         <v>101</v>
       </c>
+      <c r="BS75" t="s">
+        <v>403</v>
+      </c>
     </row>
-    <row r="76" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>308</v>
       </c>
@@ -9895,23 +10229,26 @@
       <c r="BM76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN76" s="2" t="s">
+      <c r="BN76" t="s">
         <v>97</v>
       </c>
-      <c r="BO76" s="2" t="s">
+      <c r="BO76" t="s">
         <v>98</v>
       </c>
       <c r="BP76" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ76" s="4" t="s">
+      <c r="BQ76" t="s">
         <v>100</v>
       </c>
-      <c r="BR76" s="4" t="s">
+      <c r="BR76" t="s">
         <v>101</v>
       </c>
+      <c r="BS76" t="s">
+        <v>404</v>
+      </c>
     </row>
-    <row r="77" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>312</v>
       </c>
@@ -10005,23 +10342,26 @@
       <c r="BM77" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN77" s="2" t="s">
+      <c r="BN77" t="s">
         <v>97</v>
       </c>
-      <c r="BO77" s="2" t="s">
+      <c r="BO77" t="s">
         <v>98</v>
       </c>
       <c r="BP77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ77" s="4" t="s">
+      <c r="BQ77" t="s">
         <v>100</v>
       </c>
-      <c r="BR77" s="4" t="s">
+      <c r="BR77" t="s">
         <v>101</v>
       </c>
+      <c r="BS77" t="s">
+        <v>404</v>
+      </c>
     </row>
-    <row r="78" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>314</v>
       </c>
@@ -10115,23 +10455,26 @@
       <c r="BM78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN78" s="2" t="s">
+      <c r="BN78" t="s">
         <v>97</v>
       </c>
-      <c r="BO78" s="2" t="s">
+      <c r="BO78" t="s">
         <v>98</v>
       </c>
       <c r="BP78" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ78" s="4" t="s">
+      <c r="BQ78" t="s">
         <v>100</v>
       </c>
-      <c r="BR78" s="4" t="s">
+      <c r="BR78" t="s">
         <v>101</v>
       </c>
+      <c r="BS78" t="s">
+        <v>405</v>
+      </c>
     </row>
-    <row r="79" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>318</v>
       </c>
@@ -10225,23 +10568,26 @@
       <c r="BM79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN79" s="2" t="s">
+      <c r="BN79" t="s">
         <v>97</v>
       </c>
-      <c r="BO79" s="2" t="s">
+      <c r="BO79" t="s">
         <v>98</v>
       </c>
       <c r="BP79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ79" s="4" t="s">
+      <c r="BQ79" t="s">
         <v>100</v>
       </c>
-      <c r="BR79" s="4" t="s">
+      <c r="BR79" t="s">
         <v>101</v>
       </c>
+      <c r="BS79" t="s">
+        <v>405</v>
+      </c>
     </row>
-    <row r="80" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>320</v>
       </c>
@@ -10335,23 +10681,26 @@
       <c r="BM80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN80" s="2" t="s">
+      <c r="BN80" t="s">
         <v>97</v>
       </c>
-      <c r="BO80" s="2" t="s">
+      <c r="BO80" t="s">
         <v>98</v>
       </c>
       <c r="BP80" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ80" s="4" t="s">
+      <c r="BQ80" t="s">
         <v>100</v>
       </c>
-      <c r="BR80" s="4" t="s">
+      <c r="BR80" t="s">
         <v>101</v>
       </c>
+      <c r="BS80" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="81" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>324</v>
       </c>
@@ -10445,23 +10794,26 @@
       <c r="BM81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN81" s="2" t="s">
+      <c r="BN81" t="s">
         <v>97</v>
       </c>
-      <c r="BO81" s="2" t="s">
+      <c r="BO81" t="s">
         <v>98</v>
       </c>
       <c r="BP81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ81" s="4" t="s">
+      <c r="BQ81" t="s">
         <v>100</v>
       </c>
-      <c r="BR81" s="4" t="s">
+      <c r="BR81" t="s">
         <v>101</v>
       </c>
+      <c r="BS81" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="82" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>326</v>
       </c>
@@ -10558,23 +10910,26 @@
       <c r="BM82" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN82" s="2" t="s">
+      <c r="BN82" t="s">
         <v>97</v>
       </c>
-      <c r="BO82" s="2" t="s">
+      <c r="BO82" t="s">
         <v>98</v>
       </c>
       <c r="BP82" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ82" s="4" t="s">
+      <c r="BQ82" t="s">
         <v>100</v>
       </c>
-      <c r="BR82" s="4" t="s">
+      <c r="BR82" t="s">
         <v>101</v>
       </c>
+      <c r="BS82" t="s">
+        <v>407</v>
+      </c>
     </row>
-    <row r="83" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>330</v>
       </c>
@@ -10671,23 +11026,26 @@
       <c r="BM83" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN83" s="2" t="s">
+      <c r="BN83" t="s">
         <v>97</v>
       </c>
-      <c r="BO83" s="2" t="s">
+      <c r="BO83" t="s">
         <v>98</v>
       </c>
       <c r="BP83" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ83" s="4" t="s">
+      <c r="BQ83" t="s">
         <v>100</v>
       </c>
-      <c r="BR83" s="4" t="s">
+      <c r="BR83" t="s">
         <v>101</v>
       </c>
+      <c r="BS83" t="s">
+        <v>407</v>
+      </c>
     </row>
-    <row r="84" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>332</v>
       </c>
@@ -10781,23 +11139,26 @@
       <c r="BM84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN84" s="2" t="s">
+      <c r="BN84" t="s">
         <v>97</v>
       </c>
-      <c r="BO84" s="2" t="s">
+      <c r="BO84" t="s">
         <v>98</v>
       </c>
       <c r="BP84" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ84" s="4" t="s">
+      <c r="BQ84" t="s">
         <v>100</v>
       </c>
-      <c r="BR84" s="4" t="s">
+      <c r="BR84" t="s">
         <v>101</v>
       </c>
+      <c r="BS84" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="85" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>336</v>
       </c>
@@ -10891,23 +11252,26 @@
       <c r="BM85" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN85" s="2" t="s">
+      <c r="BN85" t="s">
         <v>97</v>
       </c>
-      <c r="BO85" s="2" t="s">
+      <c r="BO85" t="s">
         <v>98</v>
       </c>
       <c r="BP85" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ85" s="4" t="s">
+      <c r="BQ85" t="s">
         <v>100</v>
       </c>
-      <c r="BR85" s="4" t="s">
+      <c r="BR85" t="s">
         <v>101</v>
       </c>
+      <c r="BS85" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="86" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>338</v>
       </c>
@@ -11004,23 +11368,26 @@
       <c r="BM86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN86" s="2" t="s">
+      <c r="BN86" t="s">
         <v>97</v>
       </c>
-      <c r="BO86" s="2" t="s">
+      <c r="BO86" t="s">
         <v>98</v>
       </c>
       <c r="BP86" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ86" s="4" t="s">
+      <c r="BQ86" t="s">
         <v>100</v>
       </c>
-      <c r="BR86" s="4" t="s">
+      <c r="BR86" t="s">
         <v>101</v>
       </c>
+      <c r="BS86" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="87" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>342</v>
       </c>
@@ -11117,23 +11484,26 @@
       <c r="BM87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN87" s="2" t="s">
+      <c r="BN87" t="s">
         <v>97</v>
       </c>
-      <c r="BO87" s="2" t="s">
+      <c r="BO87" t="s">
         <v>98</v>
       </c>
       <c r="BP87" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ87" s="4" t="s">
+      <c r="BQ87" t="s">
         <v>100</v>
       </c>
-      <c r="BR87" s="4" t="s">
+      <c r="BR87" t="s">
         <v>101</v>
       </c>
+      <c r="BS87" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="88" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>344</v>
       </c>
@@ -11224,23 +11594,26 @@
       <c r="BM88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN88" s="2" t="s">
+      <c r="BN88" t="s">
         <v>97</v>
       </c>
-      <c r="BO88" s="2" t="s">
+      <c r="BO88" t="s">
         <v>98</v>
       </c>
       <c r="BP88" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ88" s="4" t="s">
+      <c r="BQ88" t="s">
         <v>100</v>
       </c>
-      <c r="BR88" s="4" t="s">
+      <c r="BR88" t="s">
         <v>101</v>
       </c>
+      <c r="BS88" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="89" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>348</v>
       </c>
@@ -11331,23 +11704,26 @@
       <c r="BM89" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN89" s="2" t="s">
+      <c r="BN89" t="s">
         <v>97</v>
       </c>
-      <c r="BO89" s="2" t="s">
+      <c r="BO89" t="s">
         <v>98</v>
       </c>
       <c r="BP89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ89" s="4" t="s">
+      <c r="BQ89" t="s">
         <v>100</v>
       </c>
-      <c r="BR89" s="4" t="s">
+      <c r="BR89" t="s">
         <v>101</v>
       </c>
+      <c r="BS89" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="90" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>350</v>
       </c>
@@ -11441,23 +11817,26 @@
       <c r="BM90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN90" s="2" t="s">
+      <c r="BN90" t="s">
         <v>97</v>
       </c>
-      <c r="BO90" s="2" t="s">
+      <c r="BO90" t="s">
         <v>98</v>
       </c>
       <c r="BP90" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ90" s="4" t="s">
+      <c r="BQ90" t="s">
         <v>100</v>
       </c>
-      <c r="BR90" s="4" t="s">
+      <c r="BR90" t="s">
         <v>101</v>
       </c>
+      <c r="BS90" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="91" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>354</v>
       </c>
@@ -11551,23 +11930,26 @@
       <c r="BM91" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN91" s="2" t="s">
+      <c r="BN91" t="s">
         <v>97</v>
       </c>
-      <c r="BO91" s="2" t="s">
+      <c r="BO91" t="s">
         <v>98</v>
       </c>
       <c r="BP91" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ91" s="4" t="s">
+      <c r="BQ91" t="s">
         <v>100</v>
       </c>
-      <c r="BR91" s="4" t="s">
+      <c r="BR91" t="s">
         <v>101</v>
       </c>
+      <c r="BS91" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="92" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>356</v>
       </c>
@@ -11661,23 +12043,26 @@
       <c r="BM92" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN92" s="2" t="s">
+      <c r="BN92" t="s">
         <v>97</v>
       </c>
-      <c r="BO92" s="2" t="s">
+      <c r="BO92" t="s">
         <v>98</v>
       </c>
       <c r="BP92" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ92" s="4" t="s">
+      <c r="BQ92" t="s">
         <v>100</v>
       </c>
-      <c r="BR92" s="4" t="s">
+      <c r="BR92" t="s">
         <v>101</v>
       </c>
+      <c r="BS92" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="93" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>360</v>
       </c>
@@ -11771,23 +12156,26 @@
       <c r="BM93" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN93" s="2" t="s">
+      <c r="BN93" t="s">
         <v>97</v>
       </c>
-      <c r="BO93" s="2" t="s">
+      <c r="BO93" t="s">
         <v>98</v>
       </c>
       <c r="BP93" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ93" s="4" t="s">
+      <c r="BQ93" t="s">
         <v>100</v>
       </c>
-      <c r="BR93" s="4" t="s">
+      <c r="BR93" t="s">
         <v>101</v>
       </c>
+      <c r="BS93" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="94" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>362</v>
       </c>
@@ -11881,23 +12269,26 @@
       <c r="BM94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN94" s="2" t="s">
+      <c r="BN94" t="s">
         <v>97</v>
       </c>
-      <c r="BO94" s="2" t="s">
+      <c r="BO94" t="s">
         <v>98</v>
       </c>
       <c r="BP94" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ94" s="4" t="s">
+      <c r="BQ94" t="s">
         <v>100</v>
       </c>
-      <c r="BR94" s="4" t="s">
+      <c r="BR94" t="s">
         <v>101</v>
       </c>
+      <c r="BS94" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="95" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>366</v>
       </c>
@@ -11991,23 +12382,26 @@
       <c r="BM95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN95" s="2" t="s">
+      <c r="BN95" t="s">
         <v>97</v>
       </c>
-      <c r="BO95" s="2" t="s">
+      <c r="BO95" t="s">
         <v>98</v>
       </c>
       <c r="BP95" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ95" s="4" t="s">
+      <c r="BQ95" t="s">
         <v>100</v>
       </c>
-      <c r="BR95" s="4" t="s">
+      <c r="BR95" t="s">
         <v>101</v>
       </c>
+      <c r="BS95" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="96" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>368</v>
       </c>
@@ -12104,23 +12498,26 @@
       <c r="BM96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN96" s="2" t="s">
+      <c r="BN96" t="s">
         <v>97</v>
       </c>
-      <c r="BO96" s="2" t="s">
+      <c r="BO96" t="s">
         <v>98</v>
       </c>
       <c r="BP96" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ96" s="4" t="s">
+      <c r="BQ96" t="s">
         <v>100</v>
       </c>
-      <c r="BR96" s="4" t="s">
+      <c r="BR96" t="s">
         <v>101</v>
       </c>
+      <c r="BS96" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="97" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>372</v>
       </c>
@@ -12217,23 +12614,26 @@
       <c r="BM97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN97" s="2" t="s">
+      <c r="BN97" t="s">
         <v>97</v>
       </c>
-      <c r="BO97" s="2" t="s">
+      <c r="BO97" t="s">
         <v>98</v>
       </c>
       <c r="BP97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ97" s="4" t="s">
+      <c r="BQ97" t="s">
         <v>100</v>
       </c>
-      <c r="BR97" s="4" t="s">
+      <c r="BR97" t="s">
         <v>101</v>
       </c>
+      <c r="BS97" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="98" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>374</v>
       </c>
@@ -12330,23 +12730,26 @@
       <c r="BM98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN98" s="2" t="s">
+      <c r="BN98" t="s">
         <v>97</v>
       </c>
-      <c r="BO98" s="2" t="s">
+      <c r="BO98" t="s">
         <v>98</v>
       </c>
       <c r="BP98" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ98" s="4" t="s">
+      <c r="BQ98" t="s">
         <v>100</v>
       </c>
-      <c r="BR98" s="4" t="s">
+      <c r="BR98" t="s">
         <v>101</v>
       </c>
+      <c r="BS98" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="99" spans="1:70" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:71" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>378</v>
       </c>
@@ -12443,20 +12846,23 @@
       <c r="BM99" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BN99" s="2" t="s">
+      <c r="BN99" t="s">
         <v>97</v>
       </c>
-      <c r="BO99" s="2" t="s">
+      <c r="BO99" t="s">
         <v>98</v>
       </c>
       <c r="BP99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BQ99" s="4" t="s">
+      <c r="BQ99" t="s">
         <v>100</v>
       </c>
-      <c r="BR99" s="4" t="s">
+      <c r="BR99" t="s">
         <v>101</v>
+      </c>
+      <c r="BS99" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -12465,15 +12871,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5901cbfa-22a5-460e-a18e-d2e48de81980">
@@ -12482,6 +12879,15 @@
     <TaxCatchAll xmlns="c68fef7c-f1b9-468c-b56b-b081b4f51826" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12690,20 +13096,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D6EB8F-DCAF-48C8-ADCD-7439B6B16410}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{930F34F6-A22C-4E7F-BB3F-E080B52AF7CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="5901cbfa-22a5-460e-a18e-d2e48de81980"/>
     <ds:schemaRef ds:uri="c68fef7c-f1b9-468c-b56b-b081b4f51826"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D6EB8F-DCAF-48C8-ADCD-7439B6B16410}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
